--- a/成绩单定义/工程热力学_2014.xlsx
+++ b/成绩单定义/工程热力学_2014.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gqgua\Documents\Git\EnergyChE\成绩单定义\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0775BCA1-69FF-4798-9FAF-ACB560419AE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0988C409-ACEC-4474-8C01-FAE466F45F2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="983" yWindow="-98" windowWidth="21614" windowHeight="15196" xr2:uid="{EAC867B4-B24A-45FE-8158-E9D89BC363C3}"/>
+    <workbookView xWindow="885" yWindow="-98" windowWidth="21712" windowHeight="15196" xr2:uid="{EAC867B4-B24A-45FE-8158-E9D89BC363C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -558,7 +558,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -585,7 +585,7 @@
         <v>37</v>
       </c>
       <c r="B2">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="C2" t="s">
         <v>36</v>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="B38">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="C38" t="s">
         <v>43</v>
